--- a/Documentation/CDC_Scrum.xlsx
+++ b/Documentation/CDC_Scrum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\valer\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2AEDC72-10CA-41C3-8C6E-69EED1D247C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7622AEC7-2560-4349-8BF4-1EA0B96DFEDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,6 @@
     <sheet name="Release Backlog" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -286,9 +285,6 @@
     <t>Authentication Microservice</t>
   </si>
   <si>
-    <t>ProjectL CHART AND BURNDOWN</t>
-  </si>
-  <si>
     <t>Homepage setup</t>
   </si>
   <si>
@@ -316,9 +312,6 @@
     <t>Sudoso</t>
   </si>
   <si>
-    <t>SCRUM PROJECT MANAGEMENT PROJECTL CHART</t>
-  </si>
-  <si>
     <t>Sasanelli</t>
   </si>
   <si>
@@ -380,6 +373,12 @@
   </si>
   <si>
     <t>Execution of the final features, comprehensive testing of both the features and the fully deployed system.</t>
+  </si>
+  <si>
+    <t>SCRUM PROJECT MANAGEMENT ONE SPORT CHART</t>
+  </si>
+  <si>
+    <t>ONE SPORT CHART AND BURNDOWN</t>
   </si>
 </sst>
 </file>
@@ -2063,6 +2062,36 @@
     <xf numFmtId="14" fontId="24" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="9" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2106,36 +2135,6 @@
     <xf numFmtId="0" fontId="8" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -4137,8 +4136,8 @@
   </sheetPr>
   <dimension ref="A1:CE998"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="BO48" sqref="BO48"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4165,7 +4164,7 @@
   <sheetData>
     <row r="1" spans="2:73" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -4198,9 +4197,9 @@
       <c r="AE1" s="2"/>
       <c r="AF1" s="2"/>
     </row>
-    <row r="2" spans="2:73" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:73" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="3" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -4223,7 +4222,7 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="5"/>
-      <c r="K3" s="164" t="s">
+      <c r="K3" s="145" t="s">
         <v>1</v>
       </c>
       <c r="L3" s="6" t="s">
@@ -4260,7 +4259,7 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="165"/>
+      <c r="K4" s="146"/>
       <c r="L4" s="11" t="s">
         <v>3</v>
       </c>
@@ -4295,7 +4294,7 @@
       <c r="H5" s="2"/>
       <c r="I5" s="3"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="165"/>
+      <c r="K5" s="146"/>
       <c r="L5" s="15" t="s">
         <v>4</v>
       </c>
@@ -4370,7 +4369,7 @@
       <c r="H6" s="2"/>
       <c r="I6" s="3"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="166"/>
+      <c r="K6" s="147"/>
       <c r="L6" s="19" t="s">
         <v>5</v>
       </c>
@@ -4501,124 +4500,124 @@
       <c r="BU7" s="2"/>
     </row>
     <row r="8" spans="2:73" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="167" t="s">
+      <c r="B8" s="148" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="169" t="s">
+      <c r="C8" s="150" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="171" t="s">
+      <c r="D8" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="173" t="s">
+      <c r="E8" s="154" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="174"/>
-      <c r="G8" s="175"/>
-      <c r="H8" s="176" t="s">
+      <c r="F8" s="155"/>
+      <c r="G8" s="156"/>
+      <c r="H8" s="157" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="178" t="s">
+      <c r="I8" s="159" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="153" t="s">
+      <c r="J8" s="169" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="155" t="s">
+      <c r="K8" s="171" t="s">
         <v>13</v>
       </c>
-      <c r="L8" s="156" t="s">
+      <c r="L8" s="172" t="s">
         <v>14</v>
       </c>
-      <c r="M8" s="158" t="s">
+      <c r="M8" s="174" t="s">
         <v>15</v>
       </c>
-      <c r="N8" s="149"/>
-      <c r="O8" s="149"/>
-      <c r="P8" s="149"/>
-      <c r="Q8" s="150"/>
-      <c r="R8" s="159" t="s">
+      <c r="N8" s="165"/>
+      <c r="O8" s="165"/>
+      <c r="P8" s="165"/>
+      <c r="Q8" s="166"/>
+      <c r="R8" s="175" t="s">
         <v>16</v>
       </c>
-      <c r="S8" s="149"/>
-      <c r="T8" s="149"/>
-      <c r="U8" s="149"/>
-      <c r="V8" s="150"/>
-      <c r="W8" s="159" t="s">
+      <c r="S8" s="165"/>
+      <c r="T8" s="165"/>
+      <c r="U8" s="165"/>
+      <c r="V8" s="166"/>
+      <c r="W8" s="175" t="s">
         <v>17</v>
       </c>
-      <c r="X8" s="149"/>
-      <c r="Y8" s="149"/>
-      <c r="Z8" s="149"/>
-      <c r="AA8" s="152"/>
-      <c r="AB8" s="160" t="s">
+      <c r="X8" s="165"/>
+      <c r="Y8" s="165"/>
+      <c r="Z8" s="165"/>
+      <c r="AA8" s="168"/>
+      <c r="AB8" s="176" t="s">
         <v>18</v>
       </c>
-      <c r="AC8" s="149"/>
-      <c r="AD8" s="149"/>
-      <c r="AE8" s="149"/>
-      <c r="AF8" s="150"/>
-      <c r="AG8" s="161" t="s">
+      <c r="AC8" s="165"/>
+      <c r="AD8" s="165"/>
+      <c r="AE8" s="165"/>
+      <c r="AF8" s="166"/>
+      <c r="AG8" s="177" t="s">
         <v>19</v>
       </c>
-      <c r="AH8" s="149"/>
-      <c r="AI8" s="149"/>
-      <c r="AJ8" s="149"/>
-      <c r="AK8" s="150"/>
-      <c r="AL8" s="161" t="s">
+      <c r="AH8" s="165"/>
+      <c r="AI8" s="165"/>
+      <c r="AJ8" s="165"/>
+      <c r="AK8" s="166"/>
+      <c r="AL8" s="177" t="s">
         <v>20</v>
       </c>
-      <c r="AM8" s="149"/>
-      <c r="AN8" s="149"/>
-      <c r="AO8" s="149"/>
-      <c r="AP8" s="152"/>
-      <c r="AQ8" s="162" t="s">
+      <c r="AM8" s="165"/>
+      <c r="AN8" s="165"/>
+      <c r="AO8" s="165"/>
+      <c r="AP8" s="168"/>
+      <c r="AQ8" s="178" t="s">
         <v>21</v>
       </c>
-      <c r="AR8" s="149"/>
-      <c r="AS8" s="149"/>
-      <c r="AT8" s="149"/>
-      <c r="AU8" s="150"/>
-      <c r="AV8" s="163" t="s">
+      <c r="AR8" s="165"/>
+      <c r="AS8" s="165"/>
+      <c r="AT8" s="165"/>
+      <c r="AU8" s="166"/>
+      <c r="AV8" s="179" t="s">
         <v>22</v>
       </c>
-      <c r="AW8" s="149"/>
-      <c r="AX8" s="149"/>
-      <c r="AY8" s="149"/>
-      <c r="AZ8" s="150"/>
-      <c r="BA8" s="163" t="s">
+      <c r="AW8" s="165"/>
+      <c r="AX8" s="165"/>
+      <c r="AY8" s="165"/>
+      <c r="AZ8" s="166"/>
+      <c r="BA8" s="179" t="s">
         <v>23</v>
       </c>
-      <c r="BB8" s="149"/>
-      <c r="BC8" s="149"/>
-      <c r="BD8" s="149"/>
-      <c r="BE8" s="152"/>
-      <c r="BF8" s="148" t="s">
+      <c r="BB8" s="165"/>
+      <c r="BC8" s="165"/>
+      <c r="BD8" s="165"/>
+      <c r="BE8" s="168"/>
+      <c r="BF8" s="164" t="s">
         <v>24</v>
       </c>
-      <c r="BG8" s="149"/>
-      <c r="BH8" s="149"/>
-      <c r="BI8" s="149"/>
-      <c r="BJ8" s="150"/>
-      <c r="BK8" s="151" t="s">
+      <c r="BG8" s="165"/>
+      <c r="BH8" s="165"/>
+      <c r="BI8" s="165"/>
+      <c r="BJ8" s="166"/>
+      <c r="BK8" s="167" t="s">
         <v>25</v>
       </c>
-      <c r="BL8" s="149"/>
-      <c r="BM8" s="149"/>
-      <c r="BN8" s="149"/>
-      <c r="BO8" s="150"/>
-      <c r="BP8" s="151" t="s">
+      <c r="BL8" s="165"/>
+      <c r="BM8" s="165"/>
+      <c r="BN8" s="165"/>
+      <c r="BO8" s="166"/>
+      <c r="BP8" s="167" t="s">
         <v>26</v>
       </c>
-      <c r="BQ8" s="149"/>
-      <c r="BR8" s="149"/>
-      <c r="BS8" s="149"/>
-      <c r="BT8" s="152"/>
+      <c r="BQ8" s="165"/>
+      <c r="BR8" s="165"/>
+      <c r="BS8" s="165"/>
+      <c r="BT8" s="168"/>
     </row>
     <row r="9" spans="2:73" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="168"/>
-      <c r="C9" s="170"/>
-      <c r="D9" s="172"/>
+      <c r="B9" s="149"/>
+      <c r="C9" s="151"/>
+      <c r="D9" s="153"/>
       <c r="E9" s="21" t="s">
         <v>27</v>
       </c>
@@ -4628,11 +4627,11 @@
       <c r="G9" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="177"/>
-      <c r="I9" s="179"/>
-      <c r="J9" s="154"/>
-      <c r="K9" s="154"/>
-      <c r="L9" s="157"/>
+      <c r="H9" s="158"/>
+      <c r="I9" s="160"/>
+      <c r="J9" s="170"/>
+      <c r="K9" s="170"/>
+      <c r="L9" s="173"/>
       <c r="M9" s="24" t="s">
         <v>30</v>
       </c>
@@ -4823,7 +4822,7 @@
       </c>
       <c r="D10" s="38"/>
       <c r="E10" s="39">
-        <f t="shared" ref="E10:G10" si="0">SUM(E11:E15)</f>
+        <f t="shared" ref="E10:F10" si="0">SUM(E11:E15)</f>
         <v>60</v>
       </c>
       <c r="F10" s="40">
@@ -4831,8 +4830,8 @@
         <v>60</v>
       </c>
       <c r="G10" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(E10:F10)</f>
+        <v>120</v>
       </c>
       <c r="H10" s="42"/>
       <c r="I10" s="43"/>
@@ -4914,7 +4913,7 @@
         <v>35</v>
       </c>
       <c r="D11" s="52" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E11" s="53">
         <v>10</v>
@@ -5009,10 +5008,10 @@
         <v>1.2</v>
       </c>
       <c r="C12" s="51" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D12" s="52" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E12" s="53">
         <v>10</v>
@@ -5107,10 +5106,10 @@
         <v>1.3</v>
       </c>
       <c r="C13" s="51" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D13" s="52" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E13" s="53">
         <v>15</v>
@@ -5202,13 +5201,13 @@
     </row>
     <row r="14" spans="2:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="50" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C14" s="51" t="s">
         <v>40</v>
       </c>
       <c r="D14" s="52" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E14" s="53">
         <v>15</v>
@@ -5300,13 +5299,13 @@
     </row>
     <row r="15" spans="2:73" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="50" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C15" s="51" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D15" s="52" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E15" s="53">
         <v>10</v>
@@ -5412,8 +5411,8 @@
         <v>50</v>
       </c>
       <c r="G16" s="41">
-        <f>SUM(G18:G21)</f>
-        <v>0</v>
+        <f>SUM(E16:F16)</f>
+        <v>100</v>
       </c>
       <c r="H16" s="70"/>
       <c r="I16" s="141"/>
@@ -5488,13 +5487,13 @@
     </row>
     <row r="17" spans="1:73" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="50" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C17" s="51" t="s">
         <v>82</v>
       </c>
       <c r="D17" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E17" s="53">
         <v>10</v>
@@ -5533,8 +5532,8 @@
       <c r="T17" s="62"/>
       <c r="U17" s="62"/>
       <c r="V17" s="62"/>
-      <c r="W17" s="60"/>
-      <c r="X17" s="60"/>
+      <c r="W17" s="137"/>
+      <c r="X17" s="137"/>
       <c r="Y17" s="61"/>
       <c r="Z17" s="61"/>
       <c r="AA17" s="63"/>
@@ -5586,13 +5585,13 @@
     </row>
     <row r="18" spans="1:73" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="50" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C18" s="51" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D18" s="52" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E18" s="53">
         <v>10</v>
@@ -5684,13 +5683,13 @@
     </row>
     <row r="19" spans="1:73" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="50" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C19" s="51" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D19" s="135" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E19" s="53">
         <v>10</v>
@@ -5780,13 +5779,13 @@
     </row>
     <row r="20" spans="1:73" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="50" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C20" s="51" t="s">
         <v>81</v>
       </c>
       <c r="D20" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E20" s="53">
         <v>15</v>
@@ -5884,7 +5883,7 @@
         <v>38</v>
       </c>
       <c r="D21" s="52" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E21" s="53">
         <v>5</v>
@@ -5990,8 +5989,8 @@
         <v>65</v>
       </c>
       <c r="G22" s="41">
-        <f ca="1">SUM(G13:G27)</f>
-        <v>0</v>
+        <f>SUM(E22:F22)</f>
+        <v>130</v>
       </c>
       <c r="H22" s="70"/>
       <c r="I22" s="141"/>
@@ -6066,13 +6065,13 @@
     </row>
     <row r="23" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="50" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C23" s="51" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D23" s="52" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E23" s="53">
         <v>15</v>
@@ -6164,13 +6163,13 @@
     </row>
     <row r="24" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="50" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C24" s="51" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D24" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E24" s="53">
         <v>10</v>
@@ -6264,10 +6263,10 @@
         <v>41</v>
       </c>
       <c r="C25" s="51" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D25" s="52" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E25" s="53">
         <v>15</v>
@@ -6361,10 +6360,10 @@
         <v>42</v>
       </c>
       <c r="C26" s="51" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D26" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E26" s="53">
         <v>10</v>
@@ -6459,10 +6458,10 @@
         <v>43</v>
       </c>
       <c r="C27" s="51" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D27" s="52" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E27" s="53">
         <v>15</v>
@@ -6569,8 +6568,8 @@
         <v>38</v>
       </c>
       <c r="G28" s="41">
-        <f>SUM(G29:G32)</f>
-        <v>0</v>
+        <f>SUM(E28:F28)</f>
+        <v>76</v>
       </c>
       <c r="H28" s="70"/>
       <c r="I28" s="141"/>
@@ -6648,10 +6647,10 @@
         <v>45</v>
       </c>
       <c r="C29" s="51" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D29" s="52" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E29" s="53">
         <v>10</v>
@@ -6746,10 +6745,10 @@
         <v>46</v>
       </c>
       <c r="C30" s="73" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D30" s="78" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E30" s="79">
         <v>10</v>
@@ -6845,10 +6844,10 @@
         <v>47</v>
       </c>
       <c r="C31" s="73" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D31" s="78" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E31" s="79">
         <v>3</v>
@@ -6944,10 +6943,10 @@
         <v>48</v>
       </c>
       <c r="C32" s="90" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D32" s="91" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E32" s="92">
         <v>15</v>
@@ -7103,8 +7102,8 @@
         <v>754</v>
       </c>
       <c r="G40" s="107">
-        <f ca="1">SUM(G11:G15,G18:G21,G13:G27,G29:G32)</f>
-        <v>0</v>
+        <f>SUM(G11:G15,G18:G21,G13:G27,G29:G32)</f>
+        <v>230</v>
       </c>
       <c r="H40" s="107">
         <v>66</v>
@@ -7540,7 +7539,7 @@
         <v>754</v>
       </c>
       <c r="Q42" s="111">
-        <f t="shared" ref="Q42:CB42" si="11">P44</f>
+        <f t="shared" ref="Q42:BJ42" si="11">P44</f>
         <v>749</v>
       </c>
       <c r="R42" s="111">
@@ -7915,7 +7914,7 @@
         <v>58</v>
       </c>
       <c r="M44" s="111">
-        <f t="shared" ref="M44:CD44" si="12">M42-M43</f>
+        <f t="shared" ref="M44:BJ44" si="12">M42-M43</f>
         <v>751</v>
       </c>
       <c r="N44" s="111">
@@ -8143,58 +8142,58 @@
     <row r="46" spans="1:83" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="47" spans="1:83" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:83" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E48" s="145" t="s">
+      <c r="E48" s="161" t="s">
         <v>59</v>
       </c>
-      <c r="F48" s="146"/>
-      <c r="G48" s="146"/>
-      <c r="H48" s="146"/>
-      <c r="I48" s="146"/>
-      <c r="J48" s="146"/>
-      <c r="K48" s="146"/>
-      <c r="L48" s="146"/>
-      <c r="M48" s="146"/>
-      <c r="N48" s="146"/>
-      <c r="O48" s="146"/>
-      <c r="P48" s="146"/>
-      <c r="Q48" s="146"/>
-      <c r="R48" s="146"/>
-      <c r="S48" s="146"/>
-      <c r="T48" s="146"/>
-      <c r="U48" s="146"/>
-      <c r="V48" s="146"/>
-      <c r="W48" s="146"/>
-      <c r="X48" s="146"/>
-      <c r="Y48" s="146"/>
-      <c r="Z48" s="146"/>
-      <c r="AA48" s="146"/>
-      <c r="AB48" s="146"/>
-      <c r="AC48" s="146"/>
-      <c r="AD48" s="146"/>
-      <c r="AE48" s="146"/>
-      <c r="AF48" s="146"/>
-      <c r="AG48" s="146"/>
-      <c r="AH48" s="146"/>
-      <c r="AI48" s="146"/>
-      <c r="AJ48" s="146"/>
-      <c r="AK48" s="146"/>
-      <c r="AL48" s="146"/>
-      <c r="AM48" s="146"/>
-      <c r="AN48" s="146"/>
-      <c r="AO48" s="146"/>
-      <c r="AP48" s="146"/>
-      <c r="AQ48" s="146"/>
-      <c r="AR48" s="146"/>
-      <c r="AS48" s="146"/>
-      <c r="AT48" s="146"/>
-      <c r="AU48" s="146"/>
-      <c r="AV48" s="146"/>
-      <c r="AW48" s="146"/>
-      <c r="AX48" s="146"/>
-      <c r="AY48" s="146"/>
-      <c r="AZ48" s="146"/>
-      <c r="BA48" s="146"/>
-      <c r="BB48" s="147"/>
+      <c r="F48" s="162"/>
+      <c r="G48" s="162"/>
+      <c r="H48" s="162"/>
+      <c r="I48" s="162"/>
+      <c r="J48" s="162"/>
+      <c r="K48" s="162"/>
+      <c r="L48" s="162"/>
+      <c r="M48" s="162"/>
+      <c r="N48" s="162"/>
+      <c r="O48" s="162"/>
+      <c r="P48" s="162"/>
+      <c r="Q48" s="162"/>
+      <c r="R48" s="162"/>
+      <c r="S48" s="162"/>
+      <c r="T48" s="162"/>
+      <c r="U48" s="162"/>
+      <c r="V48" s="162"/>
+      <c r="W48" s="162"/>
+      <c r="X48" s="162"/>
+      <c r="Y48" s="162"/>
+      <c r="Z48" s="162"/>
+      <c r="AA48" s="162"/>
+      <c r="AB48" s="162"/>
+      <c r="AC48" s="162"/>
+      <c r="AD48" s="162"/>
+      <c r="AE48" s="162"/>
+      <c r="AF48" s="162"/>
+      <c r="AG48" s="162"/>
+      <c r="AH48" s="162"/>
+      <c r="AI48" s="162"/>
+      <c r="AJ48" s="162"/>
+      <c r="AK48" s="162"/>
+      <c r="AL48" s="162"/>
+      <c r="AM48" s="162"/>
+      <c r="AN48" s="162"/>
+      <c r="AO48" s="162"/>
+      <c r="AP48" s="162"/>
+      <c r="AQ48" s="162"/>
+      <c r="AR48" s="162"/>
+      <c r="AS48" s="162"/>
+      <c r="AT48" s="162"/>
+      <c r="AU48" s="162"/>
+      <c r="AV48" s="162"/>
+      <c r="AW48" s="162"/>
+      <c r="AX48" s="162"/>
+      <c r="AY48" s="162"/>
+      <c r="AZ48" s="162"/>
+      <c r="BA48" s="162"/>
+      <c r="BB48" s="163"/>
     </row>
     <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9148,13 +9147,6 @@
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="K3:K6"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
     <mergeCell ref="E48:BB48"/>
     <mergeCell ref="BF8:BJ8"/>
     <mergeCell ref="BK8:BO8"/>
@@ -9171,6 +9163,13 @@
     <mergeCell ref="AQ8:AU8"/>
     <mergeCell ref="AV8:AZ8"/>
     <mergeCell ref="BA8:BE8"/>
+    <mergeCell ref="K3:K6"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -9286,7 +9285,7 @@
         <v>70</v>
       </c>
       <c r="F4" s="120" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G4" s="121"/>
       <c r="H4" s="122">
@@ -9317,7 +9316,7 @@
         <v>74</v>
       </c>
       <c r="F5" s="120" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G5" s="121"/>
       <c r="H5" s="122">
@@ -9348,7 +9347,7 @@
         <v>77</v>
       </c>
       <c r="F6" s="120" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G6" s="121"/>
       <c r="H6" s="122">
@@ -9379,7 +9378,7 @@
         <v>80</v>
       </c>
       <c r="F7" s="120" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G7" s="121"/>
       <c r="H7" s="122">

--- a/Documentation/CDC_Scrum.xlsx
+++ b/Documentation/CDC_Scrum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\valer\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7622AEC7-2560-4349-8BF4-1EA0B96DFEDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF2D41D9-4703-4887-AA58-24D96541C553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="119">
   <si>
     <t>SCRUM PROJECT MANAGEMENT GANTT CHART</t>
   </si>
@@ -324,21 +324,6 @@
     <t>2.1</t>
   </si>
   <si>
-    <t>2,2</t>
-  </si>
-  <si>
-    <t>2,3</t>
-  </si>
-  <si>
-    <t>1,4</t>
-  </si>
-  <si>
-    <t>1,5</t>
-  </si>
-  <si>
-    <t>3,1</t>
-  </si>
-  <si>
     <t>3.2</t>
   </si>
   <si>
@@ -379,6 +364,33 @@
   </si>
   <si>
     <t>ONE SPORT CHART AND BURNDOWN</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>1.3</t>
   </si>
 </sst>
 </file>
@@ -4136,8 +4148,8 @@
   </sheetPr>
   <dimension ref="A1:CE998"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4164,7 +4176,7 @@
   <sheetData>
     <row r="1" spans="2:73" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -4199,7 +4211,7 @@
     </row>
     <row r="2" spans="2:73" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -4906,8 +4918,8 @@
       <c r="BT10" s="49"/>
     </row>
     <row r="11" spans="2:73" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="50">
-        <v>1.1000000000000001</v>
+      <c r="B11" s="50" t="s">
+        <v>116</v>
       </c>
       <c r="C11" s="51" t="s">
         <v>35</v>
@@ -5004,8 +5016,8 @@
       <c r="BT11" s="63"/>
     </row>
     <row r="12" spans="2:73" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="50">
-        <v>1.2</v>
+      <c r="B12" s="50" t="s">
+        <v>117</v>
       </c>
       <c r="C12" s="51" t="s">
         <v>93</v>
@@ -5102,8 +5114,8 @@
       <c r="BT12" s="63"/>
     </row>
     <row r="13" spans="2:73" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="50">
-        <v>1.3</v>
+      <c r="B13" s="50" t="s">
+        <v>118</v>
       </c>
       <c r="C13" s="51" t="s">
         <v>94</v>
@@ -5201,7 +5213,7 @@
     </row>
     <row r="14" spans="2:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="50" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="C14" s="51" t="s">
         <v>40</v>
@@ -5299,7 +5311,7 @@
     </row>
     <row r="15" spans="2:73" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="50" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="C15" s="51" t="s">
         <v>87</v>
@@ -5585,7 +5597,7 @@
     </row>
     <row r="18" spans="1:73" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="50" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="C18" s="51" t="s">
         <v>84</v>
@@ -5683,7 +5695,7 @@
     </row>
     <row r="19" spans="1:73" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="50" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="C19" s="51" t="s">
         <v>86</v>
@@ -5779,7 +5791,7 @@
     </row>
     <row r="20" spans="1:73" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="50" t="s">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="C20" s="51" t="s">
         <v>81</v>
@@ -5877,7 +5889,7 @@
     </row>
     <row r="21" spans="1:73" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="50" t="s">
-        <v>37</v>
+        <v>113</v>
       </c>
       <c r="C21" s="51" t="s">
         <v>38</v>
@@ -6065,7 +6077,7 @@
     </row>
     <row r="23" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="50" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C23" s="51" t="s">
         <v>83</v>
@@ -6163,7 +6175,7 @@
     </row>
     <row r="24" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="50" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C24" s="51" t="s">
         <v>85</v>
@@ -6263,7 +6275,7 @@
         <v>41</v>
       </c>
       <c r="C25" s="51" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D25" s="52" t="s">
         <v>88</v>
@@ -6360,7 +6372,7 @@
         <v>42</v>
       </c>
       <c r="C26" s="51" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D26" s="52" t="s">
         <v>90</v>
@@ -6458,7 +6470,7 @@
         <v>43</v>
       </c>
       <c r="C27" s="51" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D27" s="52" t="s">
         <v>91</v>
@@ -6647,7 +6659,7 @@
         <v>45</v>
       </c>
       <c r="C29" s="51" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D29" s="52" t="s">
         <v>89</v>
@@ -6745,7 +6757,7 @@
         <v>46</v>
       </c>
       <c r="C30" s="73" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D30" s="78" t="s">
         <v>88</v>
@@ -6844,7 +6856,7 @@
         <v>47</v>
       </c>
       <c r="C31" s="73" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D31" s="78" t="s">
         <v>91</v>
@@ -6943,7 +6955,7 @@
         <v>48</v>
       </c>
       <c r="C32" s="90" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D32" s="91" t="s">
         <v>89</v>
@@ -9285,7 +9297,7 @@
         <v>70</v>
       </c>
       <c r="F4" s="120" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G4" s="121"/>
       <c r="H4" s="122">
@@ -9316,7 +9328,7 @@
         <v>74</v>
       </c>
       <c r="F5" s="120" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G5" s="121"/>
       <c r="H5" s="122">
@@ -9347,7 +9359,7 @@
         <v>77</v>
       </c>
       <c r="F6" s="120" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G6" s="121"/>
       <c r="H6" s="122">
@@ -9378,7 +9390,7 @@
         <v>80</v>
       </c>
       <c r="F7" s="120" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G7" s="121"/>
       <c r="H7" s="122">

--- a/Documentation/CDC_Scrum.xlsx
+++ b/Documentation/CDC_Scrum.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\valer\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF2D41D9-4703-4887-AA58-24D96541C553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24BE36A-351F-4998-905B-19BD74A3F3B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="BLANK Gantt Chart &amp; Burndown" sheetId="1" r:id="rId1"/>
+    <sheet name="BLANK ONE SPOR Chart &amp; Burndown" sheetId="1" r:id="rId1"/>
     <sheet name="Release Backlog" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="119">
-  <si>
-    <t>SCRUM PROJECT MANAGEMENT GANTT CHART</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="118">
   <si>
     <t>SPRINTS</t>
   </si>
@@ -354,9 +351,6 @@
     <t>We exclusively focused on the microservices' backend, diligently working on and thoroughly testing all the endpoints using Testfully.</t>
   </si>
   <si>
-    <t>We utilized React to establish the connection between the Backend and Frontend, as well as to build the initial set of features.</t>
-  </si>
-  <si>
     <t>Execution of the final features, comprehensive testing of both the features and the fully deployed system.</t>
   </si>
   <si>
@@ -391,6 +385,9 @@
   </si>
   <si>
     <t>1.3</t>
+  </si>
+  <si>
+    <t>We utilized React to create the Frontend pages, and we also added the necessary API to backend features.</t>
   </si>
 </sst>
 </file>
@@ -2074,6 +2071,49 @@
     <xf numFmtId="14" fontId="24" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2104,49 +2144,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -2340,7 +2337,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'BLANK Gantt Chart &amp; Burndown'!$M$40:$BT$40</c:f>
+              <c:f>'BLANK ONE SPOR Chart &amp; Burndown'!$M$40:$BT$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
@@ -2499,7 +2496,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'BLANK Gantt Chart &amp; Burndown'!$M$43:$BT$43</c:f>
+              <c:f>'BLANK ONE SPOR Chart &amp; Burndown'!$M$43:$BT$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
@@ -2682,7 +2679,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'BLANK Gantt Chart &amp; Burndown'!$M$40:$BT$40</c:f>
+              <c:f>'BLANK ONE SPOR Chart &amp; Burndown'!$M$40:$BT$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
@@ -2841,7 +2838,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'BLANK Gantt Chart &amp; Burndown'!$M$41:$BT$41</c:f>
+              <c:f>'BLANK ONE SPOR Chart &amp; Burndown'!$M$41:$BT$41</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="60"/>
@@ -3026,7 +3023,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'BLANK Gantt Chart &amp; Burndown'!$M$40:$BT$40</c:f>
+              <c:f>'BLANK ONE SPOR Chart &amp; Burndown'!$M$40:$BT$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
@@ -3185,7 +3182,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'BLANK Gantt Chart &amp; Burndown'!$M$42:$BT$42</c:f>
+              <c:f>'BLANK ONE SPOR Chart &amp; Burndown'!$M$42:$BT$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
@@ -3370,7 +3367,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'BLANK Gantt Chart &amp; Burndown'!$M$40:$BT$40</c:f>
+              <c:f>'BLANK ONE SPOR Chart &amp; Burndown'!$M$40:$BT$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
@@ -3529,7 +3526,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'BLANK Gantt Chart &amp; Burndown'!$M$44:$BT$44</c:f>
+              <c:f>'BLANK ONE SPOR Chart &amp; Burndown'!$M$44:$BT$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
@@ -4148,8 +4145,8 @@
   </sheetPr>
   <dimension ref="A1:CE998"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C4" zoomScale="46" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4176,7 +4173,7 @@
   <sheetData>
     <row r="1" spans="2:73" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -4211,7 +4208,7 @@
     </row>
     <row r="2" spans="2:73" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -4234,11 +4231,11 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="5"/>
-      <c r="K3" s="145" t="s">
+      <c r="K3" s="164" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" s="6" t="s">
         <v>1</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>2</v>
       </c>
       <c r="M3" s="7"/>
       <c r="N3" s="8"/>
@@ -4271,9 +4268,9 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="146"/>
+      <c r="K4" s="165"/>
       <c r="L4" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M4" s="7"/>
       <c r="N4" s="12"/>
@@ -4306,9 +4303,9 @@
       <c r="H5" s="2"/>
       <c r="I5" s="3"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="146"/>
+      <c r="K5" s="165"/>
       <c r="L5" s="15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M5" s="7"/>
       <c r="N5" s="13"/>
@@ -4381,9 +4378,9 @@
       <c r="H6" s="2"/>
       <c r="I6" s="3"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="147"/>
+      <c r="K6" s="166"/>
       <c r="L6" s="19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M6" s="7"/>
       <c r="N6" s="13"/>
@@ -4512,317 +4509,317 @@
       <c r="BU7" s="2"/>
     </row>
     <row r="8" spans="2:73" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="148" t="s">
+      <c r="B8" s="167" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="169" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="150" t="s">
+      <c r="D8" s="171" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="152" t="s">
+      <c r="E8" s="173" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="154" t="s">
+      <c r="F8" s="174"/>
+      <c r="G8" s="175"/>
+      <c r="H8" s="176" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="155"/>
-      <c r="G8" s="156"/>
-      <c r="H8" s="157" t="s">
+      <c r="I8" s="178" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="159" t="s">
+      <c r="J8" s="153" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="169" t="s">
+      <c r="K8" s="155" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="171" t="s">
+      <c r="L8" s="156" t="s">
         <v>13</v>
       </c>
-      <c r="L8" s="172" t="s">
+      <c r="M8" s="158" t="s">
         <v>14</v>
       </c>
-      <c r="M8" s="174" t="s">
+      <c r="N8" s="149"/>
+      <c r="O8" s="149"/>
+      <c r="P8" s="149"/>
+      <c r="Q8" s="150"/>
+      <c r="R8" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="N8" s="165"/>
-      <c r="O8" s="165"/>
-      <c r="P8" s="165"/>
-      <c r="Q8" s="166"/>
-      <c r="R8" s="175" t="s">
+      <c r="S8" s="149"/>
+      <c r="T8" s="149"/>
+      <c r="U8" s="149"/>
+      <c r="V8" s="150"/>
+      <c r="W8" s="159" t="s">
         <v>16</v>
       </c>
-      <c r="S8" s="165"/>
-      <c r="T8" s="165"/>
-      <c r="U8" s="165"/>
-      <c r="V8" s="166"/>
-      <c r="W8" s="175" t="s">
+      <c r="X8" s="149"/>
+      <c r="Y8" s="149"/>
+      <c r="Z8" s="149"/>
+      <c r="AA8" s="152"/>
+      <c r="AB8" s="160" t="s">
         <v>17</v>
       </c>
-      <c r="X8" s="165"/>
-      <c r="Y8" s="165"/>
-      <c r="Z8" s="165"/>
-      <c r="AA8" s="168"/>
-      <c r="AB8" s="176" t="s">
+      <c r="AC8" s="149"/>
+      <c r="AD8" s="149"/>
+      <c r="AE8" s="149"/>
+      <c r="AF8" s="150"/>
+      <c r="AG8" s="161" t="s">
         <v>18</v>
       </c>
-      <c r="AC8" s="165"/>
-      <c r="AD8" s="165"/>
-      <c r="AE8" s="165"/>
-      <c r="AF8" s="166"/>
-      <c r="AG8" s="177" t="s">
+      <c r="AH8" s="149"/>
+      <c r="AI8" s="149"/>
+      <c r="AJ8" s="149"/>
+      <c r="AK8" s="150"/>
+      <c r="AL8" s="161" t="s">
         <v>19</v>
       </c>
-      <c r="AH8" s="165"/>
-      <c r="AI8" s="165"/>
-      <c r="AJ8" s="165"/>
-      <c r="AK8" s="166"/>
-      <c r="AL8" s="177" t="s">
+      <c r="AM8" s="149"/>
+      <c r="AN8" s="149"/>
+      <c r="AO8" s="149"/>
+      <c r="AP8" s="152"/>
+      <c r="AQ8" s="162" t="s">
         <v>20</v>
       </c>
-      <c r="AM8" s="165"/>
-      <c r="AN8" s="165"/>
-      <c r="AO8" s="165"/>
-      <c r="AP8" s="168"/>
-      <c r="AQ8" s="178" t="s">
+      <c r="AR8" s="149"/>
+      <c r="AS8" s="149"/>
+      <c r="AT8" s="149"/>
+      <c r="AU8" s="150"/>
+      <c r="AV8" s="163" t="s">
         <v>21</v>
       </c>
-      <c r="AR8" s="165"/>
-      <c r="AS8" s="165"/>
-      <c r="AT8" s="165"/>
-      <c r="AU8" s="166"/>
-      <c r="AV8" s="179" t="s">
+      <c r="AW8" s="149"/>
+      <c r="AX8" s="149"/>
+      <c r="AY8" s="149"/>
+      <c r="AZ8" s="150"/>
+      <c r="BA8" s="163" t="s">
         <v>22</v>
       </c>
-      <c r="AW8" s="165"/>
-      <c r="AX8" s="165"/>
-      <c r="AY8" s="165"/>
-      <c r="AZ8" s="166"/>
-      <c r="BA8" s="179" t="s">
+      <c r="BB8" s="149"/>
+      <c r="BC8" s="149"/>
+      <c r="BD8" s="149"/>
+      <c r="BE8" s="152"/>
+      <c r="BF8" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="BB8" s="165"/>
-      <c r="BC8" s="165"/>
-      <c r="BD8" s="165"/>
-      <c r="BE8" s="168"/>
-      <c r="BF8" s="164" t="s">
+      <c r="BG8" s="149"/>
+      <c r="BH8" s="149"/>
+      <c r="BI8" s="149"/>
+      <c r="BJ8" s="150"/>
+      <c r="BK8" s="151" t="s">
         <v>24</v>
       </c>
-      <c r="BG8" s="165"/>
-      <c r="BH8" s="165"/>
-      <c r="BI8" s="165"/>
-      <c r="BJ8" s="166"/>
-      <c r="BK8" s="167" t="s">
+      <c r="BL8" s="149"/>
+      <c r="BM8" s="149"/>
+      <c r="BN8" s="149"/>
+      <c r="BO8" s="150"/>
+      <c r="BP8" s="151" t="s">
         <v>25</v>
       </c>
-      <c r="BL8" s="165"/>
-      <c r="BM8" s="165"/>
-      <c r="BN8" s="165"/>
-      <c r="BO8" s="166"/>
-      <c r="BP8" s="167" t="s">
-        <v>26</v>
-      </c>
-      <c r="BQ8" s="165"/>
-      <c r="BR8" s="165"/>
-      <c r="BS8" s="165"/>
-      <c r="BT8" s="168"/>
+      <c r="BQ8" s="149"/>
+      <c r="BR8" s="149"/>
+      <c r="BS8" s="149"/>
+      <c r="BT8" s="152"/>
     </row>
     <row r="9" spans="2:73" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="149"/>
-      <c r="C9" s="151"/>
-      <c r="D9" s="153"/>
+      <c r="B9" s="168"/>
+      <c r="C9" s="170"/>
+      <c r="D9" s="172"/>
       <c r="E9" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="G9" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="23" t="s">
+      <c r="H9" s="177"/>
+      <c r="I9" s="179"/>
+      <c r="J9" s="154"/>
+      <c r="K9" s="154"/>
+      <c r="L9" s="157"/>
+      <c r="M9" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="158"/>
-      <c r="I9" s="160"/>
-      <c r="J9" s="170"/>
-      <c r="K9" s="170"/>
-      <c r="L9" s="173"/>
-      <c r="M9" s="24" t="s">
+      <c r="N9" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="N9" s="25" t="s">
+      <c r="O9" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="O9" s="25" t="s">
+      <c r="P9" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="P9" s="25" t="s">
+      <c r="R9" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="S9" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="T9" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="Q9" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="R9" s="25" t="s">
+      <c r="U9" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="S9" s="25" t="s">
+      <c r="V9" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="W9" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="X9" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y9" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="T9" s="25" t="s">
+      <c r="Z9" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA9" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="U9" s="25" t="s">
+      <c r="AB9" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC9" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD9" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="V9" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="W9" s="25" t="s">
+      <c r="AE9" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="X9" s="25" t="s">
+      <c r="AF9" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG9" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH9" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI9" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="Y9" s="25" t="s">
+      <c r="AJ9" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK9" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="Z9" s="25" t="s">
+      <c r="AL9" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="AM9" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN9" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="AA9" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB9" s="27" t="s">
+      <c r="AO9" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="AC9" s="28" t="s">
+      <c r="AP9" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="AQ9" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="AR9" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="AS9" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="AD9" s="28" t="s">
+      <c r="AT9" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="AU9" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="AE9" s="28" t="s">
+      <c r="AV9" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="AW9" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="AX9" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="AF9" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG9" s="28" t="s">
+      <c r="AY9" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="AH9" s="28" t="s">
+      <c r="AZ9" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="BA9" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="BB9" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="BC9" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="AI9" s="28" t="s">
+      <c r="BD9" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="BE9" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="AJ9" s="28" t="s">
+      <c r="BF9" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="BG9" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="BH9" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="AK9" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="AL9" s="28" t="s">
+      <c r="BI9" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="AM9" s="28" t="s">
+      <c r="BJ9" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="BK9" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="BL9" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="BM9" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="AN9" s="28" t="s">
+      <c r="BN9" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="BO9" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="AO9" s="28" t="s">
+      <c r="BP9" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="BQ9" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="BR9" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="AP9" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="AQ9" s="30" t="s">
+      <c r="BS9" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="AR9" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="AS9" s="31" t="s">
+      <c r="BT9" s="35" t="s">
         <v>32</v>
-      </c>
-      <c r="AT9" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="AU9" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="AV9" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="AW9" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="AX9" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="AY9" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="AZ9" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="BA9" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="BB9" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="BC9" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="BD9" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="BE9" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="BF9" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="BG9" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="BH9" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="BI9" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="BJ9" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="BK9" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="BL9" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="BM9" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="BN9" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="BO9" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="BP9" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="BQ9" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="BR9" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="BS9" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="BT9" s="35" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="10" spans="2:73" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
@@ -4830,7 +4827,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10" s="38"/>
       <c r="E10" s="39">
@@ -4919,13 +4916,13 @@
     </row>
     <row r="11" spans="2:73" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="50" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C11" s="51" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" s="52" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E11" s="53">
         <v>10</v>
@@ -5017,13 +5014,13 @@
     </row>
     <row r="12" spans="2:73" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="50" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C12" s="51" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D12" s="52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E12" s="53">
         <v>10</v>
@@ -5115,13 +5112,13 @@
     </row>
     <row r="13" spans="2:73" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="50" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C13" s="51" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D13" s="52" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E13" s="53">
         <v>15</v>
@@ -5213,13 +5210,13 @@
     </row>
     <row r="14" spans="2:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="50" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C14" s="51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E14" s="53">
         <v>15</v>
@@ -5311,13 +5308,13 @@
     </row>
     <row r="15" spans="2:73" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="50" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C15" s="51" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D15" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E15" s="53">
         <v>10</v>
@@ -5411,7 +5408,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="68" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D16" s="69"/>
       <c r="E16" s="39">
@@ -5499,13 +5496,13 @@
     </row>
     <row r="17" spans="1:73" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="50" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C17" s="51" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D17" s="52" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E17" s="53">
         <v>10</v>
@@ -5597,13 +5594,13 @@
     </row>
     <row r="18" spans="1:73" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="50" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C18" s="51" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D18" s="52" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E18" s="53">
         <v>10</v>
@@ -5695,13 +5692,13 @@
     </row>
     <row r="19" spans="1:73" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="50" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C19" s="51" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D19" s="135" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E19" s="53">
         <v>10</v>
@@ -5791,13 +5788,13 @@
     </row>
     <row r="20" spans="1:73" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="50" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C20" s="51" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D20" s="52" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E20" s="53">
         <v>15</v>
@@ -5889,13 +5886,13 @@
     </row>
     <row r="21" spans="1:73" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="50" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C21" s="51" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D21" s="52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E21" s="53">
         <v>5</v>
@@ -5989,7 +5986,7 @@
         <v>3</v>
       </c>
       <c r="C22" s="68" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D22" s="69"/>
       <c r="E22" s="39">
@@ -6077,13 +6074,13 @@
     </row>
     <row r="23" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="50" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C23" s="51" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D23" s="52" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E23" s="53">
         <v>15</v>
@@ -6175,13 +6172,13 @@
     </row>
     <row r="24" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="50" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C24" s="51" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D24" s="52" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E24" s="53">
         <v>10</v>
@@ -6272,13 +6269,13 @@
     </row>
     <row r="25" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="50" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C25" s="51" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D25" s="52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E25" s="53">
         <v>15</v>
@@ -6369,13 +6366,13 @@
     </row>
     <row r="26" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="50" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C26" s="51" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D26" s="52" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E26" s="53">
         <v>10</v>
@@ -6467,13 +6464,13 @@
     </row>
     <row r="27" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C27" s="51" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D27" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E27" s="53">
         <v>15</v>
@@ -6568,7 +6565,7 @@
         <v>4</v>
       </c>
       <c r="C28" s="68" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D28" s="69"/>
       <c r="E28" s="39">
@@ -6656,13 +6653,13 @@
     </row>
     <row r="29" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C29" s="51" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D29" s="52" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E29" s="53">
         <v>10</v>
@@ -6754,13 +6751,13 @@
     <row r="30" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="76"/>
       <c r="B30" s="77" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C30" s="73" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D30" s="78" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E30" s="79">
         <v>10</v>
@@ -6853,13 +6850,13 @@
     <row r="31" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="76"/>
       <c r="B31" s="77" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C31" s="73" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D31" s="78" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E31" s="79">
         <v>3</v>
@@ -6952,13 +6949,13 @@
     </row>
     <row r="32" spans="1:73" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="89" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C32" s="90" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D32" s="91" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E32" s="92">
         <v>15</v>
@@ -7082,28 +7079,28 @@
     </row>
     <row r="38" spans="1:83" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E38" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="F38" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="F38" s="105" t="s">
+      <c r="G38" s="105" t="s">
         <v>28</v>
       </c>
-      <c r="G38" s="105" t="s">
-        <v>29</v>
-      </c>
       <c r="H38" s="105" t="s">
+        <v>48</v>
+      </c>
+      <c r="I38" s="105" t="s">
         <v>49</v>
-      </c>
-      <c r="I38" s="105" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:83" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="40" spans="1:83" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C40" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D40" s="106" t="s">
         <v>51</v>
-      </c>
-      <c r="D40" s="106" t="s">
-        <v>52</v>
       </c>
       <c r="E40" s="107">
         <f>SUM(E11:E15,E18:E21,E13:E27,E29:E32,E13:E36)</f>
@@ -7125,7 +7122,7 @@
         <v>11.424242424242424</v>
       </c>
       <c r="L40" s="108" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M40" s="109">
         <v>1</v>
@@ -7298,15 +7295,15 @@
       <c r="CC40" s="109"/>
       <c r="CD40" s="109"/>
       <c r="CE40" s="106" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:83" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H41" s="110" t="s">
+        <v>53</v>
+      </c>
+      <c r="L41" s="108" t="s">
         <v>54</v>
-      </c>
-      <c r="L41" s="108" t="s">
-        <v>55</v>
       </c>
       <c r="M41" s="111">
         <f>E40</f>
@@ -7532,7 +7529,7 @@
     </row>
     <row r="42" spans="1:83" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L42" s="108" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M42" s="111">
         <f>E40</f>
@@ -7761,10 +7758,10 @@
     </row>
     <row r="43" spans="1:83" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K43" s="113" t="s">
+        <v>55</v>
+      </c>
+      <c r="L43" s="108" t="s">
         <v>56</v>
-      </c>
-      <c r="L43" s="108" t="s">
-        <v>57</v>
       </c>
       <c r="M43" s="54">
         <v>3</v>
@@ -7923,7 +7920,7 @@
     </row>
     <row r="44" spans="1:83" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L44" s="108" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M44" s="111">
         <f t="shared" ref="M44:BJ44" si="12">M42-M43</f>
@@ -8154,58 +8151,58 @@
     <row r="46" spans="1:83" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="47" spans="1:83" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:83" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E48" s="161" t="s">
-        <v>59</v>
-      </c>
-      <c r="F48" s="162"/>
-      <c r="G48" s="162"/>
-      <c r="H48" s="162"/>
-      <c r="I48" s="162"/>
-      <c r="J48" s="162"/>
-      <c r="K48" s="162"/>
-      <c r="L48" s="162"/>
-      <c r="M48" s="162"/>
-      <c r="N48" s="162"/>
-      <c r="O48" s="162"/>
-      <c r="P48" s="162"/>
-      <c r="Q48" s="162"/>
-      <c r="R48" s="162"/>
-      <c r="S48" s="162"/>
-      <c r="T48" s="162"/>
-      <c r="U48" s="162"/>
-      <c r="V48" s="162"/>
-      <c r="W48" s="162"/>
-      <c r="X48" s="162"/>
-      <c r="Y48" s="162"/>
-      <c r="Z48" s="162"/>
-      <c r="AA48" s="162"/>
-      <c r="AB48" s="162"/>
-      <c r="AC48" s="162"/>
-      <c r="AD48" s="162"/>
-      <c r="AE48" s="162"/>
-      <c r="AF48" s="162"/>
-      <c r="AG48" s="162"/>
-      <c r="AH48" s="162"/>
-      <c r="AI48" s="162"/>
-      <c r="AJ48" s="162"/>
-      <c r="AK48" s="162"/>
-      <c r="AL48" s="162"/>
-      <c r="AM48" s="162"/>
-      <c r="AN48" s="162"/>
-      <c r="AO48" s="162"/>
-      <c r="AP48" s="162"/>
-      <c r="AQ48" s="162"/>
-      <c r="AR48" s="162"/>
-      <c r="AS48" s="162"/>
-      <c r="AT48" s="162"/>
-      <c r="AU48" s="162"/>
-      <c r="AV48" s="162"/>
-      <c r="AW48" s="162"/>
-      <c r="AX48" s="162"/>
-      <c r="AY48" s="162"/>
-      <c r="AZ48" s="162"/>
-      <c r="BA48" s="162"/>
-      <c r="BB48" s="163"/>
+      <c r="E48" s="145" t="s">
+        <v>58</v>
+      </c>
+      <c r="F48" s="146"/>
+      <c r="G48" s="146"/>
+      <c r="H48" s="146"/>
+      <c r="I48" s="146"/>
+      <c r="J48" s="146"/>
+      <c r="K48" s="146"/>
+      <c r="L48" s="146"/>
+      <c r="M48" s="146"/>
+      <c r="N48" s="146"/>
+      <c r="O48" s="146"/>
+      <c r="P48" s="146"/>
+      <c r="Q48" s="146"/>
+      <c r="R48" s="146"/>
+      <c r="S48" s="146"/>
+      <c r="T48" s="146"/>
+      <c r="U48" s="146"/>
+      <c r="V48" s="146"/>
+      <c r="W48" s="146"/>
+      <c r="X48" s="146"/>
+      <c r="Y48" s="146"/>
+      <c r="Z48" s="146"/>
+      <c r="AA48" s="146"/>
+      <c r="AB48" s="146"/>
+      <c r="AC48" s="146"/>
+      <c r="AD48" s="146"/>
+      <c r="AE48" s="146"/>
+      <c r="AF48" s="146"/>
+      <c r="AG48" s="146"/>
+      <c r="AH48" s="146"/>
+      <c r="AI48" s="146"/>
+      <c r="AJ48" s="146"/>
+      <c r="AK48" s="146"/>
+      <c r="AL48" s="146"/>
+      <c r="AM48" s="146"/>
+      <c r="AN48" s="146"/>
+      <c r="AO48" s="146"/>
+      <c r="AP48" s="146"/>
+      <c r="AQ48" s="146"/>
+      <c r="AR48" s="146"/>
+      <c r="AS48" s="146"/>
+      <c r="AT48" s="146"/>
+      <c r="AU48" s="146"/>
+      <c r="AV48" s="146"/>
+      <c r="AW48" s="146"/>
+      <c r="AX48" s="146"/>
+      <c r="AY48" s="146"/>
+      <c r="AZ48" s="146"/>
+      <c r="BA48" s="146"/>
+      <c r="BB48" s="147"/>
     </row>
     <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9159,6 +9156,13 @@
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="K3:K6"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
     <mergeCell ref="E48:BB48"/>
     <mergeCell ref="BF8:BJ8"/>
     <mergeCell ref="BK8:BO8"/>
@@ -9175,13 +9179,6 @@
     <mergeCell ref="AQ8:AU8"/>
     <mergeCell ref="AV8:AZ8"/>
     <mergeCell ref="BA8:BE8"/>
-    <mergeCell ref="K3:K6"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -9198,7 +9195,7 @@
   <dimension ref="B1:N1000"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9222,7 +9219,7 @@
   <sheetData>
     <row r="1" spans="2:14" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -9236,7 +9233,7 @@
     </row>
     <row r="2" spans="2:14" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -9250,65 +9247,65 @@
     </row>
     <row r="3" spans="2:14" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="114" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="115" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="115" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="115" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="115" t="s">
+      <c r="E3" s="115" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="115" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="115" t="s">
+      <c r="G3" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="115" t="s">
+      <c r="H3" s="116" t="s">
         <v>63</v>
       </c>
-      <c r="G3" s="116" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="116" t="s">
+      <c r="I3" s="117" t="s">
         <v>64</v>
       </c>
-      <c r="I3" s="117" t="s">
+      <c r="J3" s="117" t="s">
         <v>65</v>
       </c>
-      <c r="J3" s="117" t="s">
+      <c r="L3" s="118" t="s">
         <v>66</v>
       </c>
-      <c r="L3" s="118" t="s">
-        <v>67</v>
-      </c>
       <c r="N3" s="118" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="119" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C4" s="120">
         <v>1</v>
       </c>
       <c r="D4" s="120" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="120" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="120" t="s">
-        <v>70</v>
-      </c>
       <c r="F4" s="120" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G4" s="121"/>
       <c r="H4" s="122">
         <v>40</v>
       </c>
       <c r="I4" s="123" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J4" s="124"/>
       <c r="L4" s="125" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N4" s="126">
         <v>1</v>
@@ -9316,30 +9313,30 @@
     </row>
     <row r="5" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="119" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5" s="120">
         <v>2</v>
       </c>
       <c r="D5" s="120" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="120" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="120" t="s">
-        <v>74</v>
-      </c>
       <c r="F5" s="120" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G5" s="121"/>
       <c r="H5" s="122">
         <v>40</v>
       </c>
       <c r="I5" s="123" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J5" s="124"/>
       <c r="L5" s="127" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N5" s="126">
         <v>2</v>
@@ -9347,30 +9344,30 @@
     </row>
     <row r="6" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="119" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C6" s="120">
         <v>3</v>
       </c>
       <c r="D6" s="120" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="120" t="s">
         <v>76</v>
       </c>
-      <c r="E6" s="120" t="s">
-        <v>77</v>
-      </c>
       <c r="F6" s="120" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="G6" s="121"/>
       <c r="H6" s="122">
         <v>80</v>
       </c>
       <c r="I6" s="123" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J6" s="124"/>
       <c r="L6" s="128" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N6" s="126">
         <v>4</v>
@@ -9378,26 +9375,26 @@
     </row>
     <row r="7" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="119" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C7" s="120">
         <v>4</v>
       </c>
       <c r="D7" s="120" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="120" t="s">
         <v>79</v>
       </c>
-      <c r="E7" s="120" t="s">
-        <v>80</v>
-      </c>
       <c r="F7" s="120" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G7" s="121"/>
       <c r="H7" s="122">
         <v>40</v>
       </c>
       <c r="I7" s="123" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J7" s="124"/>
       <c r="N7" s="126">

--- a/Documentation/CDC_Scrum.xlsx
+++ b/Documentation/CDC_Scrum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\valer\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24BE36A-351F-4998-905B-19BD74A3F3B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB7BFCB-77E2-443B-85F6-7DD2CEB6B61A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BLANK ONE SPOR Chart &amp; Burndown" sheetId="1" r:id="rId1"/>
@@ -387,7 +387,7 @@
     <t>1.3</t>
   </si>
   <si>
-    <t>We utilized React to create the Frontend pages, and we also added the necessary API to backend features.</t>
+    <t>We utilized React to create the Frontend pages, and we also added the necessary external API to backend features.</t>
   </si>
 </sst>
 </file>
@@ -4145,7 +4145,7 @@
   </sheetPr>
   <dimension ref="A1:CE998"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C4" zoomScale="46" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A6" zoomScale="81" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
@@ -9194,8 +9194,8 @@
   </sheetPr>
   <dimension ref="B1:N1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
